--- a/prep_and_checklists/Nike Day 2  /PREPLIST_Nike Day 2  _08-15-2025_0.xlsx
+++ b/prep_and_checklists/Nike Day 2  /PREPLIST_Nike Day 2  _08-15-2025_0.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Nike Day 2  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7D8A02-63DD-124C-B1DF-1EC644F002C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4880900-1020-7743-80B2-3A439412D967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="980" windowWidth="30240" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
     <sheet name="order_sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
   <si>
     <t xml:space="preserve">Nike Day 2  , Guests: 30   , 9:00 AM - 9:00 PM   ,Tuesday, August 26, 2025  </t>
   </si>
@@ -134,6 +147,9 @@
     <t>pull granola</t>
   </si>
   <si>
+    <t>cherry tomatoes</t>
+  </si>
+  <si>
     <t>Applewood Smoked Bacon</t>
   </si>
   <si>
@@ -329,17 +345,32 @@
     <t>1x pint, * Pull from reach-in freezer</t>
   </si>
   <si>
-    <t>8:30am BREAKFAST STATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	
+    <t>1 quart each peppers, spinach, mushrooms</t>
+  </si>
+  <si>
+    <t>Add-Ons</t>
+  </si>
+  <si>
+    <t>chopped cucumber</t>
+  </si>
+  <si>
+    <t>pickled red onions</t>
+  </si>
+  <si>
+    <t>shredded carrots</t>
+  </si>
+  <si>
+    <t>2 quarts, cut in half</t>
+  </si>
+  <si>
+    <t>8:30am BREAKFAST STATION -  East Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	12:30pm GRAIN BOWL STATION - West Room
 12:30pm GRAIN BOWL STATION</t>
   </si>
   <si>
-    <t>3:30pm Chips &amp; Dip</t>
-  </si>
-  <si>
-    <t>1 quart each peppers, spinach, mushrooms</t>
+    <t>3:30pm Chips &amp; Dip - West Room</t>
   </si>
 </sst>
 </file>
@@ -469,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -509,6 +540,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,10 +852,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -823,7 +866,7 @@
     <col min="1" max="1" width="48.33203125" customWidth="1"/>
     <col min="2" max="2" width="26.1640625" customWidth="1"/>
     <col min="4" max="4" width="38.5" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" style="17" customWidth="1"/>
     <col min="7" max="7" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -849,11 +892,11 @@
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B4" s="8"/>
       <c r="D4" s="15" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -876,13 +919,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -890,13 +933,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -904,21 +947,21 @@
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -929,10 +972,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -940,13 +983,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -954,13 +997,13 @@
         <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -968,13 +1011,13 @@
         <v>23</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -982,21 +1025,21 @@
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D15" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1010,15 +1053,21 @@
         <v>33</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1026,45 +1075,55 @@
         <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>5</v>
+        <v>84</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1072,128 +1131,154 @@
         <v>36</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>80</v>
-      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="D24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D25" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D27" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="53" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1207,7 +1292,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -1217,259 +1302,260 @@
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>